--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504459.267428755</v>
+        <v>2656595.246395029</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4786147.005328983</v>
+        <v>5033790.037199254</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +667,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>232.4811208733317</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>114.1432830100253</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>115.5339884563328</v>
       </c>
       <c r="T4" t="n">
-        <v>227.2707557060456</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>32.25816731805484</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>107.8715292390512</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>42.73562645413632</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>98.10353315465306</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>129.0632185641026</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>317.9431588491611</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>55.35784756269961</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>333.1003530688848</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>56.63677140719133</v>
       </c>
       <c r="F13" t="n">
-        <v>120.1472970361159</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>416.1718885127393</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>81.01098805494637</v>
+        <v>96.68259506970402</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2002,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>53.06991172717003</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2084,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773007</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>52.5117099198488</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>27.07950026194634</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>16.92574903168972</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>29.1860761056539</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>35.5167825707945</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>93.15725658380831</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.17722654850338</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>79.58540461744528</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.01313443288673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3557,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>98.98021706930123</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>137.0314938772998</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3958,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976403</v>
       </c>
       <c r="X43" t="n">
-        <v>19.80087630034418</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4028,22 +4030,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>43.01283931269994</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.99078056551</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864841</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>3.139541480023178</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>64.34965323462492</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.0287521501519</v>
+        <v>668.0368528135842</v>
       </c>
       <c r="C2" t="n">
-        <v>728.9266833739794</v>
+        <v>633.9347840374116</v>
       </c>
       <c r="D2" t="n">
-        <v>697.057302588828</v>
+        <v>602.0654032522602</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>173.4837289895286</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>149.6567034391404</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>149.6567034391404</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,10 +4330,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4343,7 +4345,7 @@
         <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1208.676101675288</v>
+        <v>1113.68420233872</v>
       </c>
       <c r="X2" t="n">
-        <v>1193.574042295002</v>
+        <v>694.5417389180305</v>
       </c>
       <c r="Y2" t="n">
-        <v>785.2879185946557</v>
+        <v>690.296019258088</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1199904125018</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1199904125018</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1559.064610345049</v>
       </c>
       <c r="T4" t="n">
-        <v>1286.957820178689</v>
+        <v>1313.185163923504</v>
       </c>
       <c r="U4" t="n">
-        <v>1286.957820178689</v>
+        <v>1313.185163923504</v>
       </c>
       <c r="V4" t="n">
-        <v>1286.957820178689</v>
+        <v>1313.185163923504</v>
       </c>
       <c r="W4" t="n">
-        <v>1014.931415764981</v>
+        <v>1041.158759509796</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5396610983935</v>
+        <v>795.7670048432083</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.1199904125018</v>
+        <v>568.3473341573166</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>991.498727323736</v>
+        <v>1264.950381849274</v>
       </c>
       <c r="C5" t="n">
-        <v>957.3966585475634</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>925.527277762412</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>895.7929369611113</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>467.9255073703191</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>66.52767599358293</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1816.128202908536</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1411.272748319569</v>
       </c>
       <c r="X5" t="n">
-        <v>1018.003613428182</v>
+        <v>1396.170688939284</v>
       </c>
       <c r="Y5" t="n">
-        <v>1013.75789376824</v>
+        <v>1287.209548293778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="M6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970914</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>813.7761798632698</v>
+        <v>900.9284236664084</v>
       </c>
       <c r="C7" t="n">
-        <v>641.2144683464948</v>
+        <v>728.3667121496334</v>
       </c>
       <c r="D7" t="n">
-        <v>475.3364755480175</v>
+        <v>562.4887193511561</v>
       </c>
       <c r="E7" t="n">
-        <v>475.3364755480175</v>
+        <v>392.7307156018933</v>
       </c>
       <c r="F7" t="n">
-        <v>298.6294215097737</v>
+        <v>216.0236615636495</v>
       </c>
       <c r="G7" t="n">
-        <v>133.0381465356014</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2254.322061757683</v>
       </c>
       <c r="U7" t="n">
-        <v>1537.942061378414</v>
+        <v>1975.889061010788</v>
       </c>
       <c r="V7" t="n">
-        <v>1250.986553248845</v>
+        <v>1688.933552881219</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.986553248845</v>
+        <v>1416.90714846751</v>
       </c>
       <c r="X7" t="n">
-        <v>1005.594798582257</v>
+        <v>1171.515393800923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1005.594798582257</v>
+        <v>944.095723115031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.6683834787607</v>
+        <v>1385.472033935714</v>
       </c>
       <c r="C8" t="n">
-        <v>516.086709216029</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X8" t="n">
-        <v>1375.213673623611</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>966.9275499232645</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.2117929153466</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>819.6500813985715</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>653.7720886000942</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>484.0140848508315</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V10" t="n">
-        <v>992.2117929153466</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>992.2117929153466</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>992.2117929153466</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>992.2117929153466</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.83204528625</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>76.13761321162089</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O11" t="n">
-        <v>2287.945556116525</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.255430949921</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>3662.754216908516</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581044</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3470.41565748116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3065.560202892194</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2646.417739471505</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2238.131615771158</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0016331022817</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0016331022817</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0016331022817</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.2136293346052</v>
+        <v>1068.769857140662</v>
       </c>
       <c r="C13" t="n">
-        <v>591.6519178178302</v>
+        <v>896.2081456238872</v>
       </c>
       <c r="D13" t="n">
-        <v>591.6519178178302</v>
+        <v>730.3301528254099</v>
       </c>
       <c r="E13" t="n">
-        <v>591.6519178178302</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U13" t="n">
-        <v>1987.82558594935</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="V13" t="n">
-        <v>1700.87007781978</v>
+        <v>2005.426305625837</v>
       </c>
       <c r="W13" t="n">
-        <v>1428.843673406072</v>
+        <v>1733.399901212129</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.451918739484</v>
+        <v>1488.008146545541</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.0322480535924</v>
+        <v>1260.588475859649</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645388</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645388</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>511.3923006645388</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3327.591130771099</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2922.735676182133</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2922.735676182133</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2922.735676182133</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.379401819793</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.138033117789</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.258586696244</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U16" t="n">
-        <v>1987.82558594935</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V16" t="n">
-        <v>1700.87007781978</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W16" t="n">
-        <v>1428.843673406072</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.843673406072</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y16" t="n">
-        <v>1347.01439254249</v>
+        <v>3506.037522224951</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213076</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5610,7 +5612,7 @@
         <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1062.363260807472</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.993304878938</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1481.601550212351</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1254.181879526459</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,43 +5758,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5829,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3462.891420506061</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C22" t="n">
-        <v>3290.329708989285</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D22" t="n">
-        <v>3124.451716190808</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E22" t="n">
-        <v>2954.693712441545</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F22" t="n">
-        <v>2777.986658403302</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171131</v>
+        <v>218.2738200637269</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861506</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244352</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.382823542349</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V22" t="n">
-        <v>4399.547868991235</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W22" t="n">
-        <v>4127.521464577527</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X22" t="n">
-        <v>3882.129709910939</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y22" t="n">
-        <v>3654.710039225048</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>4130.535772130551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>4130.535772130551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>4130.535772130551</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>4130.535772130551</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>4130.535772130551</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>4950.258938609749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2701.823733979953</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2455.944287558408</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2177.511286811513</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1890.555778681944</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>4440.279291740943</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6315,7 +6317,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6539,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P30" t="n">
         <v>1224.761663117513</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>926.148474301186</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027087</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5124777534459</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
         <v>496.4142387799021</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536948</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,22 +6782,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1181.319000882661</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6980,7 +6982,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7013,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>809.0580335016147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>809.0580335016147</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3398.73351020982</v>
+        <v>3184.458419759166</v>
       </c>
       <c r="C37" t="n">
-        <v>3226.171798693044</v>
+        <v>3011.896708242391</v>
       </c>
       <c r="D37" t="n">
-        <v>3060.293805894567</v>
+        <v>3011.896708242391</v>
       </c>
       <c r="E37" t="n">
-        <v>2890.535802145304</v>
+        <v>2842.138704493128</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>2665.431650454885</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>4932.382823542349</v>
       </c>
       <c r="T37" t="n">
         <v>4686.503377120805</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>4408.07037637391</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>4121.114868244341</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>3849.088463830632</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>3603.696709164045</v>
       </c>
       <c r="Y37" t="n">
-        <v>3590.552128928807</v>
+        <v>3376.277038478153</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,37 +7174,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="M39" t="n">
-        <v>1327.049347523737</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4620.147416666039</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.396843814754</v>
+        <v>3575.440564248062</v>
       </c>
       <c r="C40" t="n">
-        <v>968.8351322979789</v>
+        <v>3402.878852731287</v>
       </c>
       <c r="D40" t="n">
-        <v>802.9571394995016</v>
+        <v>3237.00085993281</v>
       </c>
       <c r="E40" t="n">
-        <v>633.1991357502388</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F40" t="n">
-        <v>456.4920817119951</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G40" t="n">
-        <v>290.9008067378227</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V40" t="n">
-        <v>1886.234673580942</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W40" t="n">
-        <v>1614.208269167233</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.816514500646</v>
+        <v>3994.678853652941</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.396843814754</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1343.545346995726</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>905.4028741791492</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>905.4028741791492</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>76.1376132116209</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>76.1376132116209</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M41" t="n">
-        <v>1489.869036295245</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="N41" t="n">
-        <v>1489.869036295245</v>
+        <v>2738.306477413004</v>
       </c>
       <c r="O41" t="n">
-        <v>2432.071999789054</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.381874622451</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581045</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637921</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3364.74590925681</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3002.128959190636</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2597.27350460167</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2178.13104118098</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1769.844917480634</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.1376132116209</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.1376132116209</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>76.1376132116209</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>76.1376132116209</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>76.1376132116209</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>76.1376132116209</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>378.9152695791561</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.60449884933</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>817.0427873325549</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>651.1647945340776</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>481.4067907848148</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>304.699736746571</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.258586696244</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.82558594935</v>
+        <v>2281.246080724676</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.87007781978</v>
+        <v>1994.290572595106</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.843673406072</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1408.842788254209</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1181.423117568317</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2066.867035767074</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1628.724562950498</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.724562950498</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.949818108793</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>767.0823885180007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.5544025844809</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>486.3646795840107</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1320.714971542189</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1320.714971542189</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.714971542189</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542189</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035997</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869394</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827988</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3679.781474327811</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3317.164524261638</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>2912.309069672671</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2493.166606251982</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2493.166606251982</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7739250193529</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0159212700901</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>79.30886723184634</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>79.30886723184634</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8055,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -8152,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>387.2382033372867</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>145.5822663358872</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>609.9636564552131</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>500.2430848324429</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9477,19 +9479,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9653,10 +9655,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133664</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,10 +9965,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>446.2295987639959</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
-        <v>966.1036042908827</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>103.979036059106</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>379.5169886652538</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5822663358874</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452613</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>305.8360165328639</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>414.3707741135251</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452615</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>25.8904274966269</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>111.4236523045788</v>
       </c>
       <c r="F13" t="n">
-        <v>54.79268646174542</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.864686267319428</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.1344859240864</v>
+        <v>128.4628789093288</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>111.4236523045818</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>128.4628789093294</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>248.5691704774793</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.9682474305294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.34995760698533</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.1323395461461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>39.52293549722799</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>119.5985857788534</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>34.67467827193104</v>
       </c>
       <c r="X43" t="n">
-        <v>223.1369608195775</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>213.6172403434533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.363611086506</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>435050.002507678</v>
+        <v>437163.7229115572</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>435050.002507678</v>
+        <v>437544.3029192114</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351654.234981093</v>
+        <v>434924.940489592</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351654.2349810931</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>434924.9404895919</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>434924.940489592</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434924.940489592</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434924.9404895919</v>
+        <v>434924.940489592</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351654.2349810931</v>
+        <v>434924.9404895917</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351654.2349810931</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509339.9538958882</v>
+      </c>
+      <c r="C2" t="n">
         <v>509339.9538958881</v>
-      </c>
-      <c r="C2" t="n">
-        <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
         <v>500514.7049304848</v>
@@ -26332,7 +26334,7 @@
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
         <v>500514.7049304847</v>
@@ -26347,13 +26349,13 @@
         <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.186680824</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.186680824</v>
+        <v>500514.7049304845</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501628</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998266</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.808606369</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877261</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662222</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>130243.4307963242</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049261</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="P4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049257</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132423.6252338449</v>
+        <v>132423.625233845</v>
       </c>
       <c r="C6" t="n">
-        <v>274614.925893555</v>
+        <v>240552.541396545</v>
       </c>
       <c r="D6" t="n">
-        <v>274614.9258935548</v>
+        <v>301468.9805590125</v>
       </c>
       <c r="E6" t="n">
-        <v>177826.4864330225</v>
+        <v>226196.1515331498</v>
       </c>
       <c r="F6" t="n">
-        <v>335303.7813551265</v>
+        <v>408551.2607541996</v>
       </c>
       <c r="G6" t="n">
-        <v>319051.4521478306</v>
+        <v>408551.2607541997</v>
       </c>
       <c r="H6" t="n">
-        <v>408551.2607541996</v>
+        <v>408551.2607541997</v>
       </c>
       <c r="I6" t="n">
-        <v>408551.2607541996</v>
+        <v>408551.2607541995</v>
       </c>
       <c r="J6" t="n">
         <v>297536.7954092093</v>
       </c>
       <c r="K6" t="n">
-        <v>408551.2607541995</v>
+        <v>355505.4061154269</v>
       </c>
       <c r="L6" t="n">
-        <v>408551.2607541995</v>
+        <v>399158.9590275773</v>
       </c>
       <c r="M6" t="n">
-        <v>277115.01359678</v>
+        <v>256351.0898162121</v>
       </c>
       <c r="N6" t="n">
         <v>408551.2607541997</v>
       </c>
       <c r="O6" t="n">
-        <v>335303.7813551266</v>
+        <v>408551.2607541995</v>
       </c>
       <c r="P6" t="n">
-        <v>335303.7813551266</v>
+        <v>408551.2607541994</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939302</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>196.9558765199561</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>172.0955700011906</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.11496655865047</v>
       </c>
       <c r="T4" t="n">
-        <v>16.14989625128365</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>253.9806856931611</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>296.3317332242919</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>147.1648060776609</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.39961941187616</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>127.5668610920506</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>97.00787993732126</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>119.5821359351617</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34775,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34872,7 +34874,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>298.8178948332411</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.805895586112</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>387.2382033372867</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>152.0558298092334</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>145.5822663358872</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>609.9636564552131</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>817.497647351161</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080414</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>500.2430848324429</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36373,10 +36375,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327049</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638363</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133664</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36607,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36685,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>279.5090739465429</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>446.2295987639959</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37324,10 +37326,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
-        <v>966.1036042908827</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>103.979036059106</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>379.5169886652538</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>145.5822663358874</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452613</v>
+        <v>839.1644551322515</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>305.8360165328639</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645531</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>414.3707741135251</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452615</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2656595.246395029</v>
+        <v>2656070.064025997</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216496</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916867</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>114.1432830100253</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,16 +715,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>325.1239910349844</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>115.5339884563328</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>123.5226418690035</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>275.8843609624799</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>107.8715292390512</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.73562645413632</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>16.77055614677235</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>350.3346115241044</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>129.0632185641026</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>140.4342819615948</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>240.0854409714229</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>56.63677140719133</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.68259506970402</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773007</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H22" t="n">
-        <v>27.07950026194634</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>3.42339212608458</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>100.7890476991254</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>60.80118788411705</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.1860761056539</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>79.58540461744528</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>225.1013595417779</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864831</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>234.6314620976403</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.99078056551</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864841</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>48.28314334362825</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.34965323462492</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>668.0368528135842</v>
+        <v>847.0638324846691</v>
       </c>
       <c r="C2" t="n">
-        <v>633.9347840374116</v>
+        <v>812.9617637084964</v>
       </c>
       <c r="D2" t="n">
-        <v>602.0654032522602</v>
+        <v>781.092382923345</v>
       </c>
       <c r="E2" t="n">
-        <v>173.4837289895286</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>149.6567034391404</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>149.6567034391404</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4363,19 +4363,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>889.4858285179633</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>888.6707779694007</v>
       </c>
       <c r="X2" t="n">
-        <v>694.5417389180305</v>
+        <v>873.5687185891154</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.296019258088</v>
+        <v>869.3229989291729</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.5287154383295</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>376.5287154383295</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1233.160939331176</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1559.064610345049</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1313.185163923504</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.185163923504</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1313.185163923504</v>
+        <v>867.4414475931208</v>
       </c>
       <c r="W4" t="n">
-        <v>1041.158759509796</v>
+        <v>595.4150431794122</v>
       </c>
       <c r="X4" t="n">
-        <v>795.7670048432083</v>
+        <v>350.0232885128247</v>
       </c>
       <c r="Y4" t="n">
-        <v>568.3473341573166</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1264.950381849274</v>
+        <v>416.7668933966115</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.848313073101</v>
+        <v>382.6648246204389</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>103.9937529411662</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.25941213986539</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087174</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087174</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762204</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.74515297471</v>
+        <v>2437.967455657696</v>
       </c>
       <c r="V5" t="n">
-        <v>1816.128202908536</v>
+        <v>2075.350505591522</v>
       </c>
       <c r="W5" t="n">
-        <v>1411.272748319569</v>
+        <v>1670.495051002555</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.170688939284</v>
+        <v>1251.352587581866</v>
       </c>
       <c r="Y5" t="n">
-        <v>1287.209548293778</v>
+        <v>843.0664638815193</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
         <v>355.0573815639655</v>
@@ -4637,31 +4637,31 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947712</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947712</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947712</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947712</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947712</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947712</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970914</v>
+        <v>1025.155168760927</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.9284236664084</v>
+        <v>752.2771043960465</v>
       </c>
       <c r="C7" t="n">
-        <v>728.3667121496334</v>
+        <v>579.7153928792715</v>
       </c>
       <c r="D7" t="n">
-        <v>562.4887193511561</v>
+        <v>413.8374000807942</v>
       </c>
       <c r="E7" t="n">
-        <v>392.7307156018933</v>
+        <v>244.0793963315314</v>
       </c>
       <c r="F7" t="n">
-        <v>216.0236615636495</v>
+        <v>67.37234229328763</v>
       </c>
       <c r="G7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947712</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>325.1908411606127</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>743.4007229285737</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1202.884590109487</v>
+        <v>1143.991608255759</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1586.250411413403</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2005.919660639185</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2353.426554609526</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179228</v>
+        <v>2500.201508179231</v>
       </c>
       <c r="T7" t="n">
-        <v>2254.322061757683</v>
+        <v>2254.322061757686</v>
       </c>
       <c r="U7" t="n">
-        <v>1975.889061010788</v>
+        <v>1975.889061010791</v>
       </c>
       <c r="V7" t="n">
-        <v>1688.933552881219</v>
+        <v>1688.933552881221</v>
       </c>
       <c r="W7" t="n">
-        <v>1416.90714846751</v>
+        <v>1416.907148467513</v>
       </c>
       <c r="X7" t="n">
-        <v>1171.515393800923</v>
+        <v>1171.515393800925</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.095723115031</v>
+        <v>944.0957231150337</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1385.472033935714</v>
+        <v>462.0641869984253</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2235.974838049816</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2235.974838049816</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1831.119383460849</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1411.97692004016</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.731200380218</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
         <v>1058.729261281022</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2347.54882637258</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2069.115825625685</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5041,43 +5041,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>566.7757676570886</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1068.769857140662</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>896.2081456238872</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>730.3301528254099</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5214,37 +5214,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176952</v>
+        <v>2553.627947310951</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755407</v>
+        <v>2307.748500889406</v>
       </c>
       <c r="U13" t="n">
-        <v>2292.381813755407</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V13" t="n">
-        <v>2005.426305625837</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W13" t="n">
-        <v>1733.399901212129</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1488.008146545541</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1260.588475859649</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
         <v>4943.887948785924</v>
@@ -5360,19 +5360,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3314.218903505964</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>3314.218903505964</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>3148.340910707486</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>2978.582906958224</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>2801.87585291998</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>2636.284577945808</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>3506.037522224951</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5521,46 +5521,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5743,7 +5743,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5758,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>730.3301528254058</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>560.572149076143</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>383.8650950378992</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5943,19 +5943,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1632.322702740236</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6235,16 +6235,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>811.7546776883864</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>811.7546776883864</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>645.8766848899091</v>
       </c>
       <c r="E28" t="n">
         <v>584.4613435928212</v>
@@ -6384,52 +6384,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354639</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800065994</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745605</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955473</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113118</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S28" t="n">
-        <v>2668.021743923745</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T28" t="n">
-        <v>2422.1422975022</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U28" t="n">
-        <v>2143.709296755305</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>1748.411126173561</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1230.992967093265</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1003.573296407374</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6542,28 +6542,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6709,16 +6709,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6946,22 +6946,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6976,7 +6976,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759166</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3011.896708242391</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3011.896708242391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>2842.138704493128</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2665.431650454885</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2585.042352861506</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861506</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.382823542349</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.07037637391</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244341</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830632</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164045</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478153</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,43 +7174,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.147416666039</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248062</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731287</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.00085993281</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183547</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145303</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.04201353898</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652941</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2738.306477413004</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C43" t="n">
         <v>920.0973401405612</v>
@@ -7578,43 +7578,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113118</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.67908147157</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.67908147157</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724676</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595106</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7660,40 +7660,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>298.8178948332411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="O5" t="n">
-        <v>72.805895586112</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,10 +8382,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>317.1830304671666</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372867</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8707,10 +8707,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,7 +9169,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10190,10 +10190,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,19 +10357,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,16 +10831,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>103.979036059106</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>379.5169886652538</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>111.4236523045788</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>15.21302026266318</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.4628789093288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>111.4236523045829</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>160.7958207444079</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.14631452530516</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>107.2592358276531</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>128.4628789093294</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.34995760698533</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>18.31929241555142</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>34.67467827193104</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434924.940489592</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434924.9404895919</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>434924.9404895918</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434924.9404895919</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434924.940489592</v>
+        <v>434924.9404895918</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434924.9404895917</v>
+        <v>434924.9404895919</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509339.9538958881</v>
+      </c>
+      <c r="C2" t="n">
         <v>509339.9538958882</v>
-      </c>
-      <c r="C2" t="n">
-        <v>509339.9538958881</v>
       </c>
       <c r="D2" t="n">
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
         <v>500514.7049304848</v>
@@ -26334,16 +26334,16 @@
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="K2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304848</v>
@@ -26352,10 +26352,10 @@
         <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>500514.7049304845</v>
+        <v>500514.7049304848</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501628</v>
+        <v>66587.76789501651</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998266</v>
+        <v>11527.59554998243</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877261</v>
+        <v>53045.85463877279</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662222</v>
+        <v>9392.301726622041</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26420,10 +26420,10 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>130243.4307963242</v>
+        <v>130243.430796324</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>14245.20557049264</v>
@@ -26432,16 +26432,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049259</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049261</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="J4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049256</v>
       </c>
       <c r="K4" t="n">
         <v>14245.20557049264</v>
@@ -26450,16 +26450,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.20557049257</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14245.20557049261</v>
+      </c>
+      <c r="O4" t="n">
         <v>14245.20557049264</v>
       </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14245.20557049256</v>
-      </c>
       <c r="P4" t="n">
-        <v>14245.20557049257</v>
+        <v>14245.20557049259</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800261</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132423.625233845</v>
+        <v>132423.6252338449</v>
       </c>
       <c r="C6" t="n">
         <v>240552.541396545</v>
       </c>
       <c r="D6" t="n">
-        <v>301468.9805590125</v>
+        <v>301468.9805590127</v>
       </c>
       <c r="E6" t="n">
-        <v>226196.1515331498</v>
+        <v>226172.9271937672</v>
       </c>
       <c r="F6" t="n">
-        <v>408551.2607541996</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="G6" t="n">
-        <v>408551.2607541997</v>
+        <v>408528.036414817</v>
       </c>
       <c r="H6" t="n">
-        <v>408551.2607541997</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="I6" t="n">
-        <v>408551.2607541995</v>
+        <v>408528.0364148169</v>
       </c>
       <c r="J6" t="n">
-        <v>297536.7954092093</v>
+        <v>297513.5710698267</v>
       </c>
       <c r="K6" t="n">
-        <v>355505.4061154269</v>
+        <v>355482.1817760441</v>
       </c>
       <c r="L6" t="n">
-        <v>399158.9590275773</v>
+        <v>399135.7346881949</v>
       </c>
       <c r="M6" t="n">
-        <v>256351.0898162121</v>
+        <v>256327.8654768294</v>
       </c>
       <c r="N6" t="n">
-        <v>408551.2607541997</v>
+        <v>408528.036414817</v>
       </c>
       <c r="O6" t="n">
-        <v>408551.2607541995</v>
+        <v>408528.036414817</v>
       </c>
       <c r="P6" t="n">
-        <v>408551.2607541994</v>
+        <v>408528.036414817</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939302</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939302</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483603</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939302</v>
+        <v>37.11037423939231</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>172.0955700011906</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>33.86678953052734</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.11496655865047</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>160.5633111792703</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>155.66632601482</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.3317332242919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.1648060776609</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>147.1648060776583</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>71.7019632559543</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>127.5668610920506</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>44.00051207685092</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-4.625052335464519e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-7.230850401199483e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-7.588025165587283e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>298.8178948332411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611325</v>
       </c>
       <c r="O5" t="n">
-        <v>72.805895586112</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>30.91440664741776</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>317.1830304671666</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372867</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35427,10 +35427,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512984</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36126,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.488385918383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907501</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,7 +36767,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36910,10 +36910,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>279.5090739465429</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,19 +37077,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.891691782148</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>103.979036059106</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>379.5169886652538</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>839.1644551322515</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645531</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
